--- a/data/pca/factorExposure/factorExposure_2016-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01499409874869194</v>
+        <v>0.01697192957497627</v>
       </c>
       <c r="C2">
-        <v>0.05837340655312421</v>
+        <v>0.04255558568470182</v>
       </c>
       <c r="D2">
-        <v>-0.04965724093960577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08719596879051858</v>
+      </c>
+      <c r="E2">
+        <v>0.1122016964703073</v>
+      </c>
+      <c r="F2">
+        <v>-0.03739277732621893</v>
+      </c>
+      <c r="G2">
+        <v>0.005941117399046043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.038303628770749</v>
+        <v>0.02359639569540018</v>
       </c>
       <c r="C3">
-        <v>0.1244535841585112</v>
+        <v>0.06654768285815052</v>
       </c>
       <c r="D3">
-        <v>-0.05746620659755282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07572994162070074</v>
+      </c>
+      <c r="E3">
+        <v>0.0888279442896871</v>
+      </c>
+      <c r="F3">
+        <v>0.05106526888862516</v>
+      </c>
+      <c r="G3">
+        <v>0.1083230680146832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06220811438809081</v>
+        <v>0.06221984633791239</v>
       </c>
       <c r="C4">
-        <v>0.06146489712745419</v>
+        <v>0.06298696843534118</v>
       </c>
       <c r="D4">
-        <v>-0.04250907542919798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08129355858522277</v>
+      </c>
+      <c r="E4">
+        <v>0.1061388233639063</v>
+      </c>
+      <c r="F4">
+        <v>0.02849138145584302</v>
+      </c>
+      <c r="G4">
+        <v>-0.04087260897204342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0434968153929301</v>
+        <v>0.04101519264358369</v>
       </c>
       <c r="C6">
-        <v>0.03850467959211342</v>
+        <v>0.02862861284286808</v>
       </c>
       <c r="D6">
-        <v>-0.03674800695508203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.08307432079408841</v>
+      </c>
+      <c r="E6">
+        <v>0.09672103570997104</v>
+      </c>
+      <c r="F6">
+        <v>0.02483931428349124</v>
+      </c>
+      <c r="G6">
+        <v>0.001691688668315297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03140459414538616</v>
+        <v>0.02358369378615254</v>
       </c>
       <c r="C7">
-        <v>0.0339919249602556</v>
+        <v>0.03426217536774722</v>
       </c>
       <c r="D7">
-        <v>-0.01863064277531596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06540451395897358</v>
+      </c>
+      <c r="E7">
+        <v>0.08555980481889558</v>
+      </c>
+      <c r="F7">
+        <v>0.00354241475885586</v>
+      </c>
+      <c r="G7">
+        <v>-0.07983913175037441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01116772654775862</v>
+        <v>0.008989360912718103</v>
       </c>
       <c r="C8">
-        <v>0.04475611351265078</v>
+        <v>0.03703806536986858</v>
       </c>
       <c r="D8">
-        <v>-0.03375649894385335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.05348028582160838</v>
+      </c>
+      <c r="E8">
+        <v>0.06846272464406725</v>
+      </c>
+      <c r="F8">
+        <v>0.01519783158576904</v>
+      </c>
+      <c r="G8">
+        <v>0.003302075290213658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04202662095500754</v>
+        <v>0.04465228081862824</v>
       </c>
       <c r="C9">
-        <v>0.04367196552984666</v>
+        <v>0.04949811722140114</v>
       </c>
       <c r="D9">
-        <v>-0.03546453959760248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06875449080442099</v>
+      </c>
+      <c r="E9">
+        <v>0.0872025306859085</v>
+      </c>
+      <c r="F9">
+        <v>0.007349069302258934</v>
+      </c>
+      <c r="G9">
+        <v>-0.0476936570418757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07757460504459687</v>
+        <v>0.1034435143954933</v>
       </c>
       <c r="C10">
-        <v>-0.1866848318818297</v>
+        <v>-0.2003834935261658</v>
       </c>
       <c r="D10">
-        <v>-0.009324907040585853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004486602636847907</v>
+      </c>
+      <c r="E10">
+        <v>0.03946626151611654</v>
+      </c>
+      <c r="F10">
+        <v>-0.002082342626909517</v>
+      </c>
+      <c r="G10">
+        <v>-0.03203061609207016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04532884290163915</v>
+        <v>0.03866487484395784</v>
       </c>
       <c r="C11">
-        <v>0.05053814700605686</v>
+        <v>0.04746200766004716</v>
       </c>
       <c r="D11">
-        <v>-0.02927043132581266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0459336643165059</v>
+      </c>
+      <c r="E11">
+        <v>0.03808299534577122</v>
+      </c>
+      <c r="F11">
+        <v>0.009398750537380068</v>
+      </c>
+      <c r="G11">
+        <v>-0.05095396055137026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04863483830353493</v>
+        <v>0.04096336205256568</v>
       </c>
       <c r="C12">
-        <v>0.0454573095001272</v>
+        <v>0.04532159571357357</v>
       </c>
       <c r="D12">
-        <v>-0.008950685212554273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03920643985116387</v>
+      </c>
+      <c r="E12">
+        <v>0.04963942786141921</v>
+      </c>
+      <c r="F12">
+        <v>0.00438041751626907</v>
+      </c>
+      <c r="G12">
+        <v>-0.04780225678971085</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01781722396943706</v>
+        <v>0.0170446432158031</v>
       </c>
       <c r="C13">
-        <v>0.0529463857869324</v>
+        <v>0.04268360571398155</v>
       </c>
       <c r="D13">
-        <v>-0.01981979297448219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07612350753501419</v>
+      </c>
+      <c r="E13">
+        <v>0.1319506198619591</v>
+      </c>
+      <c r="F13">
+        <v>0.01396957666617953</v>
+      </c>
+      <c r="G13">
+        <v>-0.05557148615258378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0169478276933071</v>
+        <v>0.009667563927425458</v>
       </c>
       <c r="C14">
-        <v>0.03090398255086476</v>
+        <v>0.0293171900882481</v>
       </c>
       <c r="D14">
-        <v>-0.01134835393736581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05022021168751024</v>
+      </c>
+      <c r="E14">
+        <v>0.08081513839676667</v>
+      </c>
+      <c r="F14">
+        <v>-0.01439087719509393</v>
+      </c>
+      <c r="G14">
+        <v>-0.04940592678176383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0005416281118691007</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00628500419181648</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01233763167684149</v>
+      </c>
+      <c r="E15">
+        <v>0.01221340895118948</v>
+      </c>
+      <c r="F15">
+        <v>7.572400663984271e-05</v>
+      </c>
+      <c r="G15">
+        <v>-0.00031812286090012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04450768271397612</v>
+        <v>0.03784194938712172</v>
       </c>
       <c r="C16">
-        <v>0.0477713576688676</v>
+        <v>0.04498744478751592</v>
       </c>
       <c r="D16">
-        <v>-0.01700334945884159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04123484251636788</v>
+      </c>
+      <c r="E16">
+        <v>0.05230466345639676</v>
+      </c>
+      <c r="F16">
+        <v>-0.006457805687878839</v>
+      </c>
+      <c r="G16">
+        <v>-0.04024417629105593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02530909880751879</v>
+        <v>0.01814050187762061</v>
       </c>
       <c r="C19">
-        <v>0.05905885393755887</v>
+        <v>0.04355896275390665</v>
       </c>
       <c r="D19">
-        <v>-0.07997021298974903</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1040709259150568</v>
+      </c>
+      <c r="E19">
+        <v>0.1236408717984441</v>
+      </c>
+      <c r="F19">
+        <v>-0.01587332268418043</v>
+      </c>
+      <c r="G19">
+        <v>0.0005900882197829043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02334055081607076</v>
+        <v>0.01828896768846256</v>
       </c>
       <c r="C20">
-        <v>0.04701854070379339</v>
+        <v>0.04020860152318177</v>
       </c>
       <c r="D20">
-        <v>-0.0199224591286007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05713768831118685</v>
+      </c>
+      <c r="E20">
+        <v>0.0983787166554419</v>
+      </c>
+      <c r="F20">
+        <v>-0.001359947402859769</v>
+      </c>
+      <c r="G20">
+        <v>-0.03049333802966089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02198431493173147</v>
+        <v>0.01745391435940248</v>
       </c>
       <c r="C21">
-        <v>0.05628304522023157</v>
+        <v>0.04628428198435253</v>
       </c>
       <c r="D21">
-        <v>-0.03601196269624033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08534142254778465</v>
+      </c>
+      <c r="E21">
+        <v>0.1521220909205995</v>
+      </c>
+      <c r="F21">
+        <v>-0.02227774218486293</v>
+      </c>
+      <c r="G21">
+        <v>-0.07105387609981803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0005513795393266034</v>
+        <v>0.005446706369981283</v>
       </c>
       <c r="C22">
-        <v>0.01318007096942953</v>
+        <v>0.02955392538964542</v>
       </c>
       <c r="D22">
-        <v>-0.02558778504872454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06948111878411233</v>
+      </c>
+      <c r="E22">
+        <v>0.07519934384647009</v>
+      </c>
+      <c r="F22">
+        <v>0.06424888642594388</v>
+      </c>
+      <c r="G22">
+        <v>0.03105327751252148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005583072809400233</v>
+        <v>0.005567956583722272</v>
       </c>
       <c r="C23">
-        <v>0.0131820157715379</v>
+        <v>0.02961481992019479</v>
       </c>
       <c r="D23">
-        <v>-0.02554545587647816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06879635905368535</v>
+      </c>
+      <c r="E23">
+        <v>0.07540710499067357</v>
+      </c>
+      <c r="F23">
+        <v>0.0641987030758031</v>
+      </c>
+      <c r="G23">
+        <v>0.03037054723492952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04100364686345347</v>
+        <v>0.03868101516218161</v>
       </c>
       <c r="C24">
-        <v>0.04867840887013253</v>
+        <v>0.05240945769697958</v>
       </c>
       <c r="D24">
-        <v>-0.02239707734928335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04371750536910497</v>
+      </c>
+      <c r="E24">
+        <v>0.05731851263194952</v>
+      </c>
+      <c r="F24">
+        <v>-0.003459298380803672</v>
+      </c>
+      <c r="G24">
+        <v>-0.05968457089058546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05138523589122231</v>
+        <v>0.04520166148296056</v>
       </c>
       <c r="C25">
-        <v>0.05371832360871153</v>
+        <v>0.05299529337198228</v>
       </c>
       <c r="D25">
-        <v>-0.01573046755494745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03967399609448997</v>
+      </c>
+      <c r="E25">
+        <v>0.05037375670201146</v>
+      </c>
+      <c r="F25">
+        <v>0.01195626100217278</v>
+      </c>
+      <c r="G25">
+        <v>-0.05834974794920319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02293945269373544</v>
+        <v>0.0195147427957082</v>
       </c>
       <c r="C26">
-        <v>0.01320650719813319</v>
+        <v>0.01615787867890386</v>
       </c>
       <c r="D26">
-        <v>-0.02105831195183533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04474211054304244</v>
+      </c>
+      <c r="E26">
+        <v>0.06439626977991382</v>
+      </c>
+      <c r="F26">
+        <v>-0.01561050082097114</v>
+      </c>
+      <c r="G26">
+        <v>-0.02166638782360723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09642414498668649</v>
+        <v>0.1415148221592646</v>
       </c>
       <c r="C28">
-        <v>-0.2595590869310355</v>
+        <v>-0.2598232258455473</v>
       </c>
       <c r="D28">
-        <v>0.002010593777725245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01950754476764535</v>
+      </c>
+      <c r="E28">
+        <v>0.06406468060555552</v>
+      </c>
+      <c r="F28">
+        <v>-0.002477551930613651</v>
+      </c>
+      <c r="G28">
+        <v>-0.06832968295507333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01219266192773329</v>
+        <v>0.008937144620244109</v>
       </c>
       <c r="C29">
-        <v>0.0281971103470054</v>
+        <v>0.0272605030940077</v>
       </c>
       <c r="D29">
-        <v>-0.003668666724260979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04215367244133832</v>
+      </c>
+      <c r="E29">
+        <v>0.07955210124878993</v>
+      </c>
+      <c r="F29">
+        <v>-0.004568007543007638</v>
+      </c>
+      <c r="G29">
+        <v>-0.05531014860000467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04488833782862925</v>
+        <v>0.04524668334105174</v>
       </c>
       <c r="C30">
-        <v>0.0499384915218845</v>
+        <v>0.0564791513147876</v>
       </c>
       <c r="D30">
-        <v>-0.09595054738135171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1312633801803587</v>
+      </c>
+      <c r="E30">
+        <v>0.1007936430015889</v>
+      </c>
+      <c r="F30">
+        <v>0.002912065759301589</v>
+      </c>
+      <c r="G30">
+        <v>0.004141708616799686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06867667160723429</v>
+        <v>0.06453505685395257</v>
       </c>
       <c r="C31">
-        <v>0.04684401187779184</v>
+        <v>0.06146431116717076</v>
       </c>
       <c r="D31">
-        <v>0.02518359636420478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.007438194376354945</v>
+      </c>
+      <c r="E31">
+        <v>0.08232825117020284</v>
+      </c>
+      <c r="F31">
+        <v>0.03052346038211162</v>
+      </c>
+      <c r="G31">
+        <v>-0.03597291214836044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001496948394541704</v>
+        <v>0.005952951518461741</v>
       </c>
       <c r="C32">
-        <v>0.03233770686853704</v>
+        <v>0.03065116317573858</v>
       </c>
       <c r="D32">
-        <v>-0.04757356320118655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.06440716728198101</v>
+      </c>
+      <c r="E32">
+        <v>0.1064618791426124</v>
+      </c>
+      <c r="F32">
+        <v>-0.03169313327902554</v>
+      </c>
+      <c r="G32">
+        <v>-0.08284937456848904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03944923437883661</v>
+        <v>0.03196672339227166</v>
       </c>
       <c r="C33">
-        <v>0.05535562331972313</v>
+        <v>0.05080788669505838</v>
       </c>
       <c r="D33">
-        <v>-0.05922815634696305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09763680970702061</v>
+      </c>
+      <c r="E33">
+        <v>0.1051608121428541</v>
+      </c>
+      <c r="F33">
+        <v>0.01473281504054292</v>
+      </c>
+      <c r="G33">
+        <v>-0.04934147751523509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04528545757993593</v>
+        <v>0.04044806256199083</v>
       </c>
       <c r="C34">
-        <v>0.06333722785151485</v>
+        <v>0.06213015208159987</v>
       </c>
       <c r="D34">
-        <v>-0.03469046657670174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04871735725066217</v>
+      </c>
+      <c r="E34">
+        <v>0.03860071390948021</v>
+      </c>
+      <c r="F34">
+        <v>-0.0008978574211884454</v>
+      </c>
+      <c r="G34">
+        <v>-0.06269467405751671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.701331861677547e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004182648604183472</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0003908303555200785</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004378091902280781</v>
+      </c>
+      <c r="F35">
+        <v>-6.410880632305631e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001027712459788911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02308449598857738</v>
+        <v>0.01891955698684638</v>
       </c>
       <c r="C36">
-        <v>0.01467542241438617</v>
+        <v>0.01359760445018312</v>
       </c>
       <c r="D36">
-        <v>-0.0132039348581747</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04539994197651392</v>
+      </c>
+      <c r="E36">
+        <v>0.07543973433671397</v>
+      </c>
+      <c r="F36">
+        <v>-0.000213961774843827</v>
+      </c>
+      <c r="G36">
+        <v>-0.04086453029002174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03327787378941613</v>
+        <v>0.02514837264040599</v>
       </c>
       <c r="C38">
-        <v>0.03081322877592032</v>
+        <v>0.02488376871262105</v>
       </c>
       <c r="D38">
-        <v>0.004133984407069962</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.037275126035188</v>
+      </c>
+      <c r="E38">
+        <v>0.06508573604786616</v>
+      </c>
+      <c r="F38">
+        <v>0.0011592364059688</v>
+      </c>
+      <c r="G38">
+        <v>0.009084321367889102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05363557324733519</v>
+        <v>0.04603265060335226</v>
       </c>
       <c r="C39">
-        <v>0.05847275917379234</v>
+        <v>0.06134621972367491</v>
       </c>
       <c r="D39">
-        <v>-0.04113276063056803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07442853095535018</v>
+      </c>
+      <c r="E39">
+        <v>0.06347735577519402</v>
+      </c>
+      <c r="F39">
+        <v>-0.02022766622666801</v>
+      </c>
+      <c r="G39">
+        <v>-0.04671672717565085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01579709290613633</v>
+        <v>0.01719300028768228</v>
       </c>
       <c r="C40">
-        <v>0.05696686057126579</v>
+        <v>0.04132651306624412</v>
       </c>
       <c r="D40">
-        <v>-0.01240687809571628</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05100920756157823</v>
+      </c>
+      <c r="E40">
+        <v>0.1157736146396799</v>
+      </c>
+      <c r="F40">
+        <v>0.02500419453882862</v>
+      </c>
+      <c r="G40">
+        <v>-0.04216363581724818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.027030679866222</v>
+        <v>0.02202121816857582</v>
       </c>
       <c r="C41">
-        <v>0.01050200082596635</v>
+        <v>0.009371024572987514</v>
       </c>
       <c r="D41">
-        <v>-0.0103935009474111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03057716189005071</v>
+      </c>
+      <c r="E41">
+        <v>0.07582845587618343</v>
+      </c>
+      <c r="F41">
+        <v>-0.002427123912777616</v>
+      </c>
+      <c r="G41">
+        <v>-0.02909527721760306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04912861821988049</v>
+        <v>0.03375907636276681</v>
       </c>
       <c r="C43">
-        <v>0.03114591765258207</v>
+        <v>0.02307945284147431</v>
       </c>
       <c r="D43">
-        <v>-0.02641686821307111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05924038638574417</v>
+      </c>
+      <c r="E43">
+        <v>0.08702437618715056</v>
+      </c>
+      <c r="F43">
+        <v>0.01962517469068536</v>
+      </c>
+      <c r="G43">
+        <v>-0.04491982826514897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02105936535878895</v>
+        <v>0.02154097241865429</v>
       </c>
       <c r="C44">
-        <v>0.06759925021185635</v>
+        <v>0.04835081152881415</v>
       </c>
       <c r="D44">
-        <v>-0.00248804932043748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05136704694204042</v>
+      </c>
+      <c r="E44">
+        <v>0.1070849573632043</v>
+      </c>
+      <c r="F44">
+        <v>-0.01445708088891661</v>
+      </c>
+      <c r="G44">
+        <v>-0.03035027531621935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01749358452298331</v>
+        <v>0.01544502614811235</v>
       </c>
       <c r="C46">
-        <v>0.02548585715836549</v>
+        <v>0.02964515119002507</v>
       </c>
       <c r="D46">
-        <v>0.0009773147076944108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03808614487269923</v>
+      </c>
+      <c r="E46">
+        <v>0.08852258015526587</v>
+      </c>
+      <c r="F46">
+        <v>-0.01837527586248611</v>
+      </c>
+      <c r="G46">
+        <v>-0.07039952289481839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09708120528384868</v>
+        <v>0.09648348670990259</v>
       </c>
       <c r="C47">
-        <v>0.0673698614691207</v>
+        <v>0.08035583888568</v>
       </c>
       <c r="D47">
-        <v>0.04004080686065246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008567220113080537</v>
+      </c>
+      <c r="E47">
+        <v>0.06947950526882819</v>
+      </c>
+      <c r="F47">
+        <v>0.01870192494971818</v>
+      </c>
+      <c r="G47">
+        <v>-0.06129734595882941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02548789235893733</v>
+        <v>0.02117332464232243</v>
       </c>
       <c r="C48">
-        <v>0.01024309953807705</v>
+        <v>0.01497345986306594</v>
       </c>
       <c r="D48">
-        <v>0.008628299312432693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03181824033333071</v>
+      </c>
+      <c r="E48">
+        <v>0.09262503862682384</v>
+      </c>
+      <c r="F48">
+        <v>-0.008011002105181551</v>
+      </c>
+      <c r="G48">
+        <v>-0.04520967332943673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08679207272495573</v>
+        <v>0.07423341975132411</v>
       </c>
       <c r="C50">
-        <v>0.08931072075934514</v>
+        <v>0.07670706869390433</v>
       </c>
       <c r="D50">
-        <v>0.03822526178193469</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01069810038463534</v>
+      </c>
+      <c r="E50">
+        <v>0.08651742631515785</v>
+      </c>
+      <c r="F50">
+        <v>0.05725788296183689</v>
+      </c>
+      <c r="G50">
+        <v>-0.02185201495941076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01904277727373304</v>
+        <v>0.01425233395966459</v>
       </c>
       <c r="C51">
-        <v>0.04748308628325287</v>
+        <v>0.0291013140865854</v>
       </c>
       <c r="D51">
-        <v>-0.06419602057645959</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07924137680842618</v>
+      </c>
+      <c r="E51">
+        <v>0.07170935024113824</v>
+      </c>
+      <c r="F51">
+        <v>-0.01387336559725683</v>
+      </c>
+      <c r="G51">
+        <v>-0.02262111198705542</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08874284423235054</v>
+        <v>0.1015816591416148</v>
       </c>
       <c r="C53">
-        <v>0.07808919239286399</v>
+        <v>0.08650141417221076</v>
       </c>
       <c r="D53">
-        <v>0.0612252250324839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04670231605044736</v>
+      </c>
+      <c r="E53">
+        <v>0.08785539566300483</v>
+      </c>
+      <c r="F53">
+        <v>0.01475467330002233</v>
+      </c>
+      <c r="G53">
+        <v>-0.06555264776538448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04230392382980375</v>
+        <v>0.03296218302274252</v>
       </c>
       <c r="C54">
-        <v>0.03209840985702918</v>
+        <v>0.03130577140262539</v>
       </c>
       <c r="D54">
-        <v>-0.02013730337380654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0517243384034359</v>
+      </c>
+      <c r="E54">
+        <v>0.08191743179531959</v>
+      </c>
+      <c r="F54">
+        <v>-0.007703349673165957</v>
+      </c>
+      <c r="G54">
+        <v>-0.05501694314646791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08565800598173508</v>
+        <v>0.09351210596797858</v>
       </c>
       <c r="C55">
-        <v>0.05307747600157457</v>
+        <v>0.0673069450104796</v>
       </c>
       <c r="D55">
-        <v>0.06058916160343243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04793145340613464</v>
+      </c>
+      <c r="E55">
+        <v>0.05793637291622071</v>
+      </c>
+      <c r="F55">
+        <v>0.02531254301779967</v>
+      </c>
+      <c r="G55">
+        <v>-0.02717585752234616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1492799335008202</v>
+        <v>0.1532452571567939</v>
       </c>
       <c r="C56">
-        <v>0.08407131652900031</v>
+        <v>0.1032532227022644</v>
       </c>
       <c r="D56">
-        <v>0.06521479993456938</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05489920389173251</v>
+      </c>
+      <c r="E56">
+        <v>0.04762305766398264</v>
+      </c>
+      <c r="F56">
+        <v>0.020782243155906</v>
+      </c>
+      <c r="G56">
+        <v>-0.03418008805760952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05233974405867715</v>
+        <v>0.04016175808259905</v>
       </c>
       <c r="C58">
-        <v>0.003558041102988864</v>
+        <v>0.01401533806283371</v>
       </c>
       <c r="D58">
-        <v>-0.1961718977198471</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2783930787485587</v>
+      </c>
+      <c r="E58">
+        <v>0.3488481679596311</v>
+      </c>
+      <c r="F58">
+        <v>0.1554402692999048</v>
+      </c>
+      <c r="G58">
+        <v>0.5500693699490125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1252385672581715</v>
+        <v>0.1437463218898324</v>
       </c>
       <c r="C59">
-        <v>-0.2058934299290912</v>
+        <v>-0.1935574923627797</v>
       </c>
       <c r="D59">
-        <v>-0.03800624199834382</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03895421428875571</v>
+      </c>
+      <c r="E59">
+        <v>0.02923704726674603</v>
+      </c>
+      <c r="F59">
+        <v>-0.02694949970633456</v>
+      </c>
+      <c r="G59">
+        <v>0.02062082778708196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2841643548810546</v>
+        <v>0.260544298037644</v>
       </c>
       <c r="C60">
-        <v>0.1068762206134564</v>
+        <v>0.09695672380052343</v>
       </c>
       <c r="D60">
-        <v>-0.2502632343469265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2258554232575482</v>
+      </c>
+      <c r="E60">
+        <v>-0.2703184480605119</v>
+      </c>
+      <c r="F60">
+        <v>0.1007636663446429</v>
+      </c>
+      <c r="G60">
+        <v>-0.01735211227230372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05242467652730272</v>
+        <v>0.04745153464174669</v>
       </c>
       <c r="C61">
-        <v>0.05396525294375892</v>
+        <v>0.05532194085451585</v>
       </c>
       <c r="D61">
-        <v>-0.03727706478341632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.06193947727557357</v>
+      </c>
+      <c r="E61">
+        <v>0.06186586360209707</v>
+      </c>
+      <c r="F61">
+        <v>3.774282890519868e-05</v>
+      </c>
+      <c r="G61">
+        <v>-0.06140470651897858</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01966039956915273</v>
+        <v>0.01900965773035991</v>
       </c>
       <c r="C63">
-        <v>0.03317886910198213</v>
+        <v>0.03052634048161536</v>
       </c>
       <c r="D63">
-        <v>0.006686713132465988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03660612093531914</v>
+      </c>
+      <c r="E63">
+        <v>0.08357383571360592</v>
+      </c>
+      <c r="F63">
+        <v>0.01947633272118691</v>
+      </c>
+      <c r="G63">
+        <v>-0.02380486845086989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0554800133463255</v>
+        <v>0.05907776168850112</v>
       </c>
       <c r="C64">
-        <v>0.04570586599702891</v>
+        <v>0.05902374371037826</v>
       </c>
       <c r="D64">
-        <v>-0.01628759563984618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02585191908162658</v>
+      </c>
+      <c r="E64">
+        <v>0.05440024480315497</v>
+      </c>
+      <c r="F64">
+        <v>-0.01254643343547372</v>
+      </c>
+      <c r="G64">
+        <v>-0.08514784283367245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07691747502481548</v>
+        <v>0.0638852543903581</v>
       </c>
       <c r="C65">
-        <v>0.02684306003500996</v>
+        <v>0.02592198133877468</v>
       </c>
       <c r="D65">
-        <v>-0.05590374248687868</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09748433508644108</v>
+      </c>
+      <c r="E65">
+        <v>0.06160886733218041</v>
+      </c>
+      <c r="F65">
+        <v>0.03012380210262071</v>
+      </c>
+      <c r="G65">
+        <v>0.05220645357754217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06452850950787324</v>
+        <v>0.05686340630087313</v>
       </c>
       <c r="C66">
-        <v>0.07724521956006665</v>
+        <v>0.07584332288746744</v>
       </c>
       <c r="D66">
-        <v>-0.05876204109072782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0976700531204955</v>
+      </c>
+      <c r="E66">
+        <v>0.07611659513498903</v>
+      </c>
+      <c r="F66">
+        <v>0.0003352438018548064</v>
+      </c>
+      <c r="G66">
+        <v>-0.03778994428417398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0536244735254674</v>
+        <v>0.04434595748733415</v>
       </c>
       <c r="C67">
-        <v>0.03025009006900457</v>
+        <v>0.02820143533310909</v>
       </c>
       <c r="D67">
-        <v>0.01409120572059259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01426120617515001</v>
+      </c>
+      <c r="E67">
+        <v>0.03575889885551689</v>
+      </c>
+      <c r="F67">
+        <v>0.003871177719967351</v>
+      </c>
+      <c r="G67">
+        <v>0.003323117224747186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1302995032125875</v>
+        <v>0.1512334619784545</v>
       </c>
       <c r="C68">
-        <v>-0.2832340456252942</v>
+        <v>-0.2423364157081692</v>
       </c>
       <c r="D68">
-        <v>0.00455098382891404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00349430741187609</v>
+      </c>
+      <c r="E68">
+        <v>0.04961933361328528</v>
+      </c>
+      <c r="F68">
+        <v>0.007960427395097443</v>
+      </c>
+      <c r="G68">
+        <v>0.004789052058462267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09701719721339773</v>
+        <v>0.09163944440623584</v>
       </c>
       <c r="C69">
-        <v>0.07676658943738783</v>
+        <v>0.09021705901863665</v>
       </c>
       <c r="D69">
-        <v>0.03361899942268423</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.005124051504000504</v>
+      </c>
+      <c r="E69">
+        <v>0.06960174084609581</v>
+      </c>
+      <c r="F69">
+        <v>-0.006880856129677579</v>
+      </c>
+      <c r="G69">
+        <v>-0.0714094127762865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1157021140710418</v>
+        <v>0.1439564994616869</v>
       </c>
       <c r="C71">
-        <v>-0.2618662704903294</v>
+        <v>-0.2449194728629872</v>
       </c>
       <c r="D71">
-        <v>-0.02008766778334363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01458994279805211</v>
+      </c>
+      <c r="E71">
+        <v>0.0715526275342183</v>
+      </c>
+      <c r="F71">
+        <v>0.02488755413745452</v>
+      </c>
+      <c r="G71">
+        <v>-0.04446509273220033</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1030066989460067</v>
+        <v>0.1074660999832802</v>
       </c>
       <c r="C72">
-        <v>0.05005749243540272</v>
+        <v>0.05023476157091041</v>
       </c>
       <c r="D72">
-        <v>-0.02710664357551325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05935076102201964</v>
+      </c>
+      <c r="E72">
+        <v>0.03805452301691493</v>
+      </c>
+      <c r="F72">
+        <v>0.0341417131737619</v>
+      </c>
+      <c r="G72">
+        <v>-0.06386297147613755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3571752669216851</v>
+        <v>0.3095682242395946</v>
       </c>
       <c r="C73">
-        <v>0.06981005936965505</v>
+        <v>0.07368146371453504</v>
       </c>
       <c r="D73">
-        <v>-0.5312988829177506</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4418362606956522</v>
+      </c>
+      <c r="E73">
+        <v>-0.5409629773673342</v>
+      </c>
+      <c r="F73">
+        <v>0.1937995429385367</v>
+      </c>
+      <c r="G73">
+        <v>0.05347931804733784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1066398633730779</v>
+        <v>0.1112133105525734</v>
       </c>
       <c r="C74">
-        <v>0.09078951110624253</v>
+        <v>0.08999087946063947</v>
       </c>
       <c r="D74">
-        <v>0.04669135437858205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03928062419308492</v>
+      </c>
+      <c r="E74">
+        <v>0.06610428122432195</v>
+      </c>
+      <c r="F74">
+        <v>0.03347008834830663</v>
+      </c>
+      <c r="G74">
+        <v>-0.01926633735464098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2525610935583184</v>
+        <v>0.2558342698230323</v>
       </c>
       <c r="C75">
-        <v>0.08981976818228944</v>
+        <v>0.1232965622122121</v>
       </c>
       <c r="D75">
-        <v>0.1687079828692648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1639882886251111</v>
+      </c>
+      <c r="E75">
+        <v>0.02508772950838944</v>
+      </c>
+      <c r="F75">
+        <v>0.01603428832137482</v>
+      </c>
+      <c r="G75">
+        <v>0.03110130300290477</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.11914521833095</v>
+        <v>0.1313746820512153</v>
       </c>
       <c r="C76">
-        <v>0.07888418254387207</v>
+        <v>0.09029073120367906</v>
       </c>
       <c r="D76">
-        <v>0.0847489726112227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07088582714038377</v>
+      </c>
+      <c r="E76">
+        <v>0.09373448942301094</v>
+      </c>
+      <c r="F76">
+        <v>0.002273827414614145</v>
+      </c>
+      <c r="G76">
+        <v>-0.02878979372820696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08535818620935313</v>
+        <v>0.06885013549802586</v>
       </c>
       <c r="C77">
-        <v>0.03633972047043661</v>
+        <v>0.05952640730126851</v>
       </c>
       <c r="D77">
-        <v>-0.0599293544801953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.08979301803246362</v>
+      </c>
+      <c r="E77">
+        <v>0.1165829062191049</v>
+      </c>
+      <c r="F77">
+        <v>-0.2127853812696348</v>
+      </c>
+      <c r="G77">
+        <v>0.1446741988818902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04680298843353875</v>
+        <v>0.04804782638426478</v>
       </c>
       <c r="C78">
-        <v>0.04569691176186092</v>
+        <v>0.05389585268997817</v>
       </c>
       <c r="D78">
-        <v>-0.0533375934874629</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0895564447621543</v>
+      </c>
+      <c r="E78">
+        <v>0.07789054767791297</v>
+      </c>
+      <c r="F78">
+        <v>-0.000549681007805908</v>
+      </c>
+      <c r="G78">
+        <v>-0.04830154275652384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001506693911481946</v>
+        <v>0.03737747777632924</v>
       </c>
       <c r="C79">
-        <v>0.000394898644581493</v>
+        <v>0.05105230345458565</v>
       </c>
       <c r="D79">
-        <v>-0.005620897456688754</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08726626642328952</v>
+      </c>
+      <c r="E79">
+        <v>0.08702247467088033</v>
+      </c>
+      <c r="F79">
+        <v>0.03143805766985674</v>
+      </c>
+      <c r="G79">
+        <v>-0.1958670184887368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03885856519125106</v>
+        <v>0.03083926499982334</v>
       </c>
       <c r="C80">
-        <v>0.04252318540009083</v>
+        <v>0.04630848380629519</v>
       </c>
       <c r="D80">
-        <v>-0.03660476740357042</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04555730751579753</v>
+      </c>
+      <c r="E80">
+        <v>0.0155803996845471</v>
+      </c>
+      <c r="F80">
+        <v>-0.04193216530725292</v>
+      </c>
+      <c r="G80">
+        <v>-0.0094509373800747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1498271894757268</v>
+        <v>0.1445837807096071</v>
       </c>
       <c r="C81">
-        <v>0.06768850588867194</v>
+        <v>0.08994951715326154</v>
       </c>
       <c r="D81">
-        <v>0.1428037937931229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1260267856988102</v>
+      </c>
+      <c r="E81">
+        <v>0.06859857383293769</v>
+      </c>
+      <c r="F81">
+        <v>0.001705598283858546</v>
+      </c>
+      <c r="G81">
+        <v>-0.01150683013936226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.223787128346304</v>
+        <v>0.2416814707862398</v>
       </c>
       <c r="C82">
-        <v>0.09501206509145814</v>
+        <v>0.1629621932875254</v>
       </c>
       <c r="D82">
-        <v>0.1861156389306629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2449613646192914</v>
+      </c>
+      <c r="E82">
+        <v>-0.06248688247016548</v>
+      </c>
+      <c r="F82">
+        <v>-0.06254723787397362</v>
+      </c>
+      <c r="G82">
+        <v>-0.4295089021363829</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04398887650670703</v>
+        <v>0.02981665026725064</v>
       </c>
       <c r="C83">
-        <v>0.0392359534721728</v>
+        <v>0.04788218741879487</v>
       </c>
       <c r="D83">
-        <v>-0.05004117069481765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03651101276742691</v>
+      </c>
+      <c r="E83">
+        <v>0.02846983660609598</v>
+      </c>
+      <c r="F83">
+        <v>-0.02514303385122114</v>
+      </c>
+      <c r="G83">
+        <v>-0.009437894631715429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>5.325016737389144e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001758327441563</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001324082360502471</v>
+      </c>
+      <c r="E84">
+        <v>0.007527056017128842</v>
+      </c>
+      <c r="F84">
+        <v>0.003259276125981951</v>
+      </c>
+      <c r="G84">
+        <v>0.005974054068932416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.201776732613087</v>
+        <v>0.1902897848470438</v>
       </c>
       <c r="C85">
-        <v>0.1032780798745652</v>
+        <v>0.1140879860100993</v>
       </c>
       <c r="D85">
-        <v>0.1805258479981588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1438603598167625</v>
+      </c>
+      <c r="E85">
+        <v>0.008421378178893862</v>
+      </c>
+      <c r="F85">
+        <v>0.09283288086279115</v>
+      </c>
+      <c r="G85">
+        <v>0.01341034039980425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01338110381841293</v>
+        <v>0.01687011068480717</v>
       </c>
       <c r="C86">
-        <v>0.02662929602828256</v>
+        <v>0.01603251242355346</v>
       </c>
       <c r="D86">
-        <v>-0.05924549584215134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09139014926520914</v>
+      </c>
+      <c r="E86">
+        <v>0.08942933880708118</v>
+      </c>
+      <c r="F86">
+        <v>-0.01473448333253008</v>
+      </c>
+      <c r="G86">
+        <v>-0.06710441046921563</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03413093838360918</v>
+        <v>0.0336162499963708</v>
       </c>
       <c r="C87">
-        <v>-0.001932809164012757</v>
+        <v>0.01304044075522283</v>
       </c>
       <c r="D87">
-        <v>-0.07527952794868484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1079124409933214</v>
+      </c>
+      <c r="E87">
+        <v>0.1335139918387205</v>
+      </c>
+      <c r="F87">
+        <v>-0.04978155782662586</v>
+      </c>
+      <c r="G87">
+        <v>0.02827470247914712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1151877327145052</v>
+        <v>0.09706453858878099</v>
       </c>
       <c r="C88">
-        <v>0.08626825753619977</v>
+        <v>0.06913130341189067</v>
       </c>
       <c r="D88">
-        <v>0.005646038082565605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02352092221915227</v>
+      </c>
+      <c r="E88">
+        <v>0.04409889333504057</v>
+      </c>
+      <c r="F88">
+        <v>-0.01619154630265784</v>
+      </c>
+      <c r="G88">
+        <v>-0.03325612709675547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1868063590102051</v>
+        <v>0.2195060657172994</v>
       </c>
       <c r="C89">
-        <v>-0.3751543460481017</v>
+        <v>-0.3807033208254672</v>
       </c>
       <c r="D89">
-        <v>0.02191154929672838</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002080949087628617</v>
+      </c>
+      <c r="E89">
+        <v>0.07154417594995875</v>
+      </c>
+      <c r="F89">
+        <v>-0.06759041496352565</v>
+      </c>
+      <c r="G89">
+        <v>-0.02549222135471624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1790116343898281</v>
+        <v>0.2000656796179326</v>
       </c>
       <c r="C90">
-        <v>-0.3347794027067806</v>
+        <v>-0.3100393313998571</v>
       </c>
       <c r="D90">
-        <v>0.02683254845196259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.006176869560660318</v>
+      </c>
+      <c r="E90">
+        <v>0.05521638446988095</v>
+      </c>
+      <c r="F90">
+        <v>-0.00497605856430819</v>
+      </c>
+      <c r="G90">
+        <v>0.007712451122097543</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1945562616820971</v>
+        <v>0.189098690655999</v>
       </c>
       <c r="C91">
-        <v>0.1230183463293916</v>
+        <v>0.141141003263701</v>
       </c>
       <c r="D91">
-        <v>0.1468751829456778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1299552042260291</v>
+      </c>
+      <c r="E91">
+        <v>0.05481719701910752</v>
+      </c>
+      <c r="F91">
+        <v>0.0004718671945471303</v>
+      </c>
+      <c r="G91">
+        <v>-5.739157020911489e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1592290158896328</v>
+        <v>0.179134596066696</v>
       </c>
       <c r="C92">
-        <v>-0.2882898751910362</v>
+        <v>-0.2964382411016998</v>
       </c>
       <c r="D92">
-        <v>0.01377286295240624</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00170039181403713</v>
+      </c>
+      <c r="E92">
+        <v>0.08321196388129046</v>
+      </c>
+      <c r="F92">
+        <v>-0.02608452890633081</v>
+      </c>
+      <c r="G92">
+        <v>-0.04134720568434742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.193270607108133</v>
+        <v>0.2144978920870514</v>
       </c>
       <c r="C93">
-        <v>-0.3440120262796117</v>
+        <v>-0.3201804872243798</v>
       </c>
       <c r="D93">
-        <v>0.03410555917642195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0153744876101623</v>
+      </c>
+      <c r="E93">
+        <v>0.03328632860338318</v>
+      </c>
+      <c r="F93">
+        <v>0.02310051308581237</v>
+      </c>
+      <c r="G93">
+        <v>-0.03684715747310682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3595106847061468</v>
+        <v>0.3496243434766366</v>
       </c>
       <c r="C94">
-        <v>0.1226635458181536</v>
+        <v>0.1734967531258993</v>
       </c>
       <c r="D94">
-        <v>0.4728920291618094</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4362327440209108</v>
+      </c>
+      <c r="E94">
+        <v>-0.06115454682925157</v>
+      </c>
+      <c r="F94">
+        <v>-0.1112247907093507</v>
+      </c>
+      <c r="G94">
+        <v>0.5456419931358635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1084504815187886</v>
+        <v>0.08174496414970171</v>
       </c>
       <c r="C95">
-        <v>0.03932123148406305</v>
+        <v>0.05215984390917895</v>
       </c>
       <c r="D95">
-        <v>-0.3081114398199835</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.227864282292922</v>
+      </c>
+      <c r="E95">
+        <v>-0.1110839540087471</v>
+      </c>
+      <c r="F95">
+        <v>-0.8941396846376728</v>
+      </c>
+      <c r="G95">
+        <v>0.0352146117399761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1872347501562354</v>
+        <v>0.1842903252327264</v>
       </c>
       <c r="C98">
-        <v>0.03487348348523438</v>
+        <v>0.05103779971857813</v>
       </c>
       <c r="D98">
-        <v>-0.2243522245190158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.20240947694444</v>
+      </c>
+      <c r="E98">
+        <v>-0.1821037748119663</v>
+      </c>
+      <c r="F98">
+        <v>0.1224095460618749</v>
+      </c>
+      <c r="G98">
+        <v>-0.02479079190318456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01203769541537381</v>
+        <v>0.009010508480403363</v>
       </c>
       <c r="C101">
-        <v>0.02768308774583153</v>
+        <v>0.0264514778815745</v>
       </c>
       <c r="D101">
-        <v>-0.003672455911815007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04206979658124324</v>
+      </c>
+      <c r="E101">
+        <v>0.08027662043689157</v>
+      </c>
+      <c r="F101">
+        <v>-0.005518467787502737</v>
+      </c>
+      <c r="G101">
+        <v>-0.05562087766872378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1194746782513382</v>
+        <v>0.1216940941276021</v>
       </c>
       <c r="C102">
-        <v>0.06578409354571609</v>
+        <v>0.0994699579415612</v>
       </c>
       <c r="D102">
-        <v>0.05729011716226517</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06167639681055993</v>
+      </c>
+      <c r="E102">
+        <v>-0.0005885516625652015</v>
+      </c>
+      <c r="F102">
+        <v>-0.02725274141678345</v>
+      </c>
+      <c r="G102">
+        <v>-0.04522269214465651</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
